--- a/static/game_template.xlsx
+++ b/static/game_template.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nikita/IT/hundred-to-one/docs/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nikita/IT/hundred-to-one/static/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36937803-6F20-D242-8478-2B85ACB6D25D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F45E40D6-9BE3-B241-9449-6DC18E5204A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16660" xr2:uid="{87FE08A2-48BE-D542-8EC6-58186D5AD12C}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16620" xr2:uid="{87FE08A2-48BE-D542-8EC6-58186D5AD12C}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="23">
   <si>
     <t>Простая игра</t>
   </si>
@@ -98,6 +98,12 @@
   </si>
   <si>
     <t>Тут значения очков и, соответственно, их сумма определены правилами</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Название игры: </t>
+  </si>
+  <si>
+    <t>Длина игры - от 5 до 50 символов</t>
   </si>
 </sst>
 </file>
@@ -150,7 +156,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -180,8 +186,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="14">
+  <borders count="17">
     <border>
       <left/>
       <right/>
@@ -330,12 +342,49 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="47">
+  <cellXfs count="48">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -349,69 +398,68 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
@@ -421,11 +469,8 @@
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
@@ -435,22 +480,33 @@
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyProtection="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
   </cellXfs>
@@ -459,16 +515,6 @@
     <cellStyle name="Хороший" xfId="1" builtinId="26"/>
   </cellStyles>
   <dxfs count="12">
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
     <dxf>
       <font>
         <color rgb="FF006100"/>
@@ -531,6 +577,26 @@
     </dxf>
     <dxf>
       <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
         <color rgb="FF006100"/>
       </font>
       <fill>
@@ -566,16 +632,6 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
         </patternFill>
       </fill>
     </dxf>
@@ -895,15 +951,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D4B7C4C5-A3BD-B742-9CF5-3BD8B3CBA37A}">
-  <dimension ref="A1:I67"/>
+  <dimension ref="A1:H69"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="132" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView tabSelected="1" zoomScale="125" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B55" sqref="B55:D55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="8.83203125" customWidth="1"/>
+    <col min="1" max="1" width="14.83203125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="41.6640625" customWidth="1"/>
     <col min="3" max="3" width="13.6640625" customWidth="1"/>
     <col min="4" max="4" width="5" customWidth="1"/>
@@ -911,887 +967,880 @@
     <col min="8" max="8" width="46.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A1" s="14" t="s">
+    <row r="1" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="23" t="s">
+        <v>21</v>
+      </c>
+      <c r="B1" s="46" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="46"/>
+      <c r="D1" s="46"/>
+      <c r="E1" s="47"/>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H2" s="24" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A3" s="26" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="15"/>
-      <c r="C1" s="15"/>
-      <c r="D1" s="15"/>
-      <c r="E1" s="15"/>
-    </row>
-    <row r="2" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
+      <c r="B3" s="27"/>
+      <c r="C3" s="27"/>
+      <c r="D3" s="27"/>
+      <c r="E3" s="27"/>
+      <c r="H3" s="25"/>
+    </row>
+    <row r="4" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="35" t="s">
-        <v>2</v>
-      </c>
-      <c r="C2" s="35"/>
-      <c r="D2" s="36"/>
-      <c r="E2" s="3" t="s">
+      <c r="B4" s="34" t="s">
+        <v>2</v>
+      </c>
+      <c r="C4" s="34"/>
+      <c r="D4" s="35"/>
+      <c r="E4" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="3" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="2" t="s">
+      <c r="H4" s="25"/>
+    </row>
+    <row r="5" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="37" t="s">
-        <v>2</v>
-      </c>
-      <c r="C3" t="s">
-        <v>4</v>
-      </c>
-      <c r="D3" s="43">
-        <v>0</v>
-      </c>
-      <c r="E3" s="11">
-        <f>SUM(D3:D8)</f>
-        <v>0</v>
-      </c>
-      <c r="H3" s="25" t="s">
+      <c r="B5" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="C5" t="s">
+        <v>4</v>
+      </c>
+      <c r="D5" s="19">
+        <v>0</v>
+      </c>
+      <c r="E5" s="36">
+        <f>SUM(D5:D10)</f>
+        <v>0</v>
+      </c>
+      <c r="H5" s="24" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="2" t="s">
+    <row r="6" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="37" t="s">
-        <v>2</v>
-      </c>
-      <c r="C4" t="s">
-        <v>4</v>
-      </c>
-      <c r="D4" s="43">
-        <v>0</v>
-      </c>
-      <c r="E4" s="11"/>
-      <c r="H4" s="26"/>
-    </row>
-    <row r="5" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
+      <c r="B6" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="C6" t="s">
+        <v>4</v>
+      </c>
+      <c r="D6" s="19">
+        <v>0</v>
+      </c>
+      <c r="E6" s="36"/>
+      <c r="H6" s="25"/>
+    </row>
+    <row r="7" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="37" t="s">
-        <v>2</v>
-      </c>
-      <c r="C5" t="s">
-        <v>4</v>
-      </c>
-      <c r="D5" s="43">
-        <v>0</v>
-      </c>
-      <c r="E5" s="11"/>
-      <c r="H5" s="26"/>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A6" s="2" t="s">
+      <c r="B7" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="C7" t="s">
+        <v>4</v>
+      </c>
+      <c r="D7" s="19">
+        <v>0</v>
+      </c>
+      <c r="E7" s="36"/>
+      <c r="H7" s="25"/>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A8" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="37" t="s">
-        <v>2</v>
-      </c>
-      <c r="C6" t="s">
-        <v>4</v>
-      </c>
-      <c r="D6" s="43">
-        <v>0</v>
-      </c>
-      <c r="E6" s="11"/>
-      <c r="H6" s="25" t="s">
+      <c r="B8" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="C8" t="s">
+        <v>4</v>
+      </c>
+      <c r="D8" s="19">
+        <v>0</v>
+      </c>
+      <c r="E8" s="36"/>
+      <c r="H8" s="24" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A7" s="2" t="s">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A9" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="37" t="s">
-        <v>2</v>
-      </c>
-      <c r="C7" t="s">
-        <v>4</v>
-      </c>
-      <c r="D7" s="43">
-        <v>0</v>
-      </c>
-      <c r="E7" s="11"/>
-      <c r="H7" s="26"/>
-    </row>
-    <row r="8" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="4" t="s">
+      <c r="B9" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="C9" t="s">
+        <v>4</v>
+      </c>
+      <c r="D9" s="19">
+        <v>0</v>
+      </c>
+      <c r="E9" s="36"/>
+      <c r="H9" s="25"/>
+    </row>
+    <row r="10" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="B8" s="38" t="s">
-        <v>2</v>
-      </c>
-      <c r="C8" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="D8" s="44">
-        <v>0</v>
-      </c>
-      <c r="E8" s="11"/>
-      <c r="H8" s="26"/>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A9" s="16" t="s">
-        <v>0</v>
-      </c>
-      <c r="B9" s="17"/>
-      <c r="C9" s="17"/>
-      <c r="D9" s="17"/>
-      <c r="E9" s="17"/>
-      <c r="H9" s="25" t="s">
+      <c r="B10" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="D10" s="20">
+        <v>0</v>
+      </c>
+      <c r="E10" s="36"/>
+      <c r="H10" s="25"/>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A11" s="28" t="s">
+        <v>0</v>
+      </c>
+      <c r="B11" s="29"/>
+      <c r="C11" s="29"/>
+      <c r="D11" s="29"/>
+      <c r="E11" s="29"/>
+      <c r="H11" s="24" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A10" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B10" s="35" t="s">
-        <v>2</v>
-      </c>
-      <c r="C10" s="35"/>
-      <c r="D10" s="36"/>
-      <c r="E10" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="H10" s="26"/>
-    </row>
-    <row r="11" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B11" s="37" t="s">
-        <v>2</v>
-      </c>
-      <c r="C11" t="s">
-        <v>4</v>
-      </c>
-      <c r="D11" s="43">
-        <v>0</v>
-      </c>
-      <c r="E11" s="11">
-        <f>SUM(D11:D16)</f>
-        <v>0</v>
-      </c>
-      <c r="H11" s="27"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B12" s="37" t="s">
-        <v>2</v>
-      </c>
-      <c r="C12" t="s">
-        <v>4</v>
-      </c>
-      <c r="D12" s="43">
-        <v>0</v>
-      </c>
-      <c r="E12" s="11"/>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+      <c r="B12" s="34" t="s">
+        <v>2</v>
+      </c>
+      <c r="C12" s="34"/>
+      <c r="D12" s="35"/>
+      <c r="E12" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="H12" s="25"/>
+    </row>
+    <row r="13" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B13" s="37" t="s">
+        <v>3</v>
+      </c>
+      <c r="B13" s="15" t="s">
         <v>2</v>
       </c>
       <c r="C13" t="s">
         <v>4</v>
       </c>
-      <c r="D13" s="43">
-        <v>0</v>
-      </c>
-      <c r="E13" s="11"/>
+      <c r="D13" s="19">
+        <v>0</v>
+      </c>
+      <c r="E13" s="36">
+        <f>SUM(D13:D18)</f>
+        <v>0</v>
+      </c>
+      <c r="H13" s="39"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B14" s="37" t="s">
+        <v>5</v>
+      </c>
+      <c r="B14" s="15" t="s">
         <v>2</v>
       </c>
       <c r="C14" t="s">
         <v>4</v>
       </c>
-      <c r="D14" s="43">
-        <v>0</v>
-      </c>
-      <c r="E14" s="11"/>
+      <c r="D14" s="19">
+        <v>0</v>
+      </c>
+      <c r="E14" s="36"/>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B15" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="C15" t="s">
+        <v>4</v>
+      </c>
+      <c r="D15" s="19">
+        <v>0</v>
+      </c>
+      <c r="E15" s="36"/>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A16" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B16" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="C16" t="s">
+        <v>4</v>
+      </c>
+      <c r="D16" s="19">
+        <v>0</v>
+      </c>
+      <c r="E16" s="36"/>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A17" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B15" s="37" t="s">
-        <v>2</v>
-      </c>
-      <c r="C15" t="s">
-        <v>4</v>
-      </c>
-      <c r="D15" s="43">
-        <v>0</v>
-      </c>
-      <c r="E15" s="11"/>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A16" s="4" t="s">
+      <c r="B17" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="C17" t="s">
+        <v>4</v>
+      </c>
+      <c r="D17" s="19">
+        <v>0</v>
+      </c>
+      <c r="E17" s="36"/>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A18" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="B16" s="38" t="s">
-        <v>2</v>
-      </c>
-      <c r="C16" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="D16" s="44">
-        <v>0</v>
-      </c>
-      <c r="E16" s="11"/>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="H17" s="28"/>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A18" s="14" t="s">
+      <c r="B18" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="C18" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="D18" s="20">
+        <v>0</v>
+      </c>
+      <c r="E18" s="36"/>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A20" s="26" t="s">
         <v>11</v>
       </c>
-      <c r="B18" s="15"/>
-      <c r="C18" s="15"/>
-      <c r="D18" s="15"/>
-      <c r="E18" s="15"/>
-      <c r="H18" s="28"/>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A19" s="2" t="s">
+      <c r="B20" s="27"/>
+      <c r="C20" s="27"/>
+      <c r="D20" s="27"/>
+      <c r="E20" s="27"/>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A21" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B19" s="35" t="s">
-        <v>2</v>
-      </c>
-      <c r="C19" s="35"/>
-      <c r="D19" s="36"/>
-      <c r="E19" s="3" t="s">
+      <c r="B21" s="34" t="s">
+        <v>2</v>
+      </c>
+      <c r="C21" s="34"/>
+      <c r="D21" s="35"/>
+      <c r="E21" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="H19" s="28"/>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A20" s="2" t="s">
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A22" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B20" s="37" t="s">
-        <v>2</v>
-      </c>
-      <c r="C20" t="s">
-        <v>4</v>
-      </c>
-      <c r="D20" s="43">
-        <v>0</v>
-      </c>
-      <c r="E20" s="11">
-        <f>SUM(D20:D25)</f>
-        <v>0</v>
-      </c>
-      <c r="H20" s="28"/>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A21" s="2" t="s">
+      <c r="B22" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="C22" t="s">
+        <v>4</v>
+      </c>
+      <c r="D22" s="19">
+        <v>0</v>
+      </c>
+      <c r="E22" s="36">
+        <f>SUM(D22:D27)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A23" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B21" s="37" t="s">
-        <v>2</v>
-      </c>
-      <c r="C21" t="s">
-        <v>4</v>
-      </c>
-      <c r="D21" s="43">
-        <v>0</v>
-      </c>
-      <c r="E21" s="11"/>
-      <c r="H21" s="28"/>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A22" s="2" t="s">
+      <c r="B23" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="C23" t="s">
+        <v>4</v>
+      </c>
+      <c r="D23" s="19">
+        <v>0</v>
+      </c>
+      <c r="E23" s="36"/>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A24" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B22" s="37" t="s">
-        <v>2</v>
-      </c>
-      <c r="C22" t="s">
-        <v>4</v>
-      </c>
-      <c r="D22" s="43">
-        <v>0</v>
-      </c>
-      <c r="E22" s="11"/>
-      <c r="H22" s="28"/>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A23" s="2" t="s">
+      <c r="B24" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="C24" t="s">
+        <v>4</v>
+      </c>
+      <c r="D24" s="19">
+        <v>0</v>
+      </c>
+      <c r="E24" s="36"/>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A25" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B23" s="37" t="s">
-        <v>2</v>
-      </c>
-      <c r="C23" t="s">
-        <v>4</v>
-      </c>
-      <c r="D23" s="43">
-        <v>0</v>
-      </c>
-      <c r="E23" s="11"/>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A24" s="2" t="s">
+      <c r="B25" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="C25" t="s">
+        <v>4</v>
+      </c>
+      <c r="D25" s="19">
+        <v>0</v>
+      </c>
+      <c r="E25" s="36"/>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A26" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B24" s="37" t="s">
-        <v>2</v>
-      </c>
-      <c r="C24" t="s">
-        <v>4</v>
-      </c>
-      <c r="D24" s="43">
-        <v>0</v>
-      </c>
-      <c r="E24" s="11"/>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A25" s="2" t="s">
+      <c r="B26" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="C26" t="s">
+        <v>4</v>
+      </c>
+      <c r="D26" s="19">
+        <v>0</v>
+      </c>
+      <c r="E26" s="36"/>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A27" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B25" s="37" t="s">
-        <v>2</v>
-      </c>
-      <c r="C25" t="s">
-        <v>4</v>
-      </c>
-      <c r="D25" s="43">
-        <v>0</v>
-      </c>
-      <c r="E25" s="11"/>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A26" s="18" t="s">
+      <c r="B27" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="C27" t="s">
+        <v>4</v>
+      </c>
+      <c r="D27" s="19">
+        <v>0</v>
+      </c>
+      <c r="E27" s="36"/>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A28" s="30" t="s">
         <v>12</v>
       </c>
-      <c r="B26" s="19"/>
-      <c r="C26" s="19"/>
-      <c r="D26" s="19"/>
-      <c r="E26" s="19"/>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A27" s="6" t="s">
+      <c r="B28" s="31"/>
+      <c r="C28" s="31"/>
+      <c r="D28" s="31"/>
+      <c r="E28" s="31"/>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A29" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="B27" s="39" t="s">
-        <v>2</v>
-      </c>
-      <c r="C27" s="39"/>
-      <c r="D27" s="40"/>
-      <c r="E27" s="3" t="s">
+      <c r="B29" s="37" t="s">
+        <v>2</v>
+      </c>
+      <c r="C29" s="37"/>
+      <c r="D29" s="38"/>
+      <c r="E29" s="3" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A28" s="6" t="s">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A30" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="B28" s="41" t="s">
-        <v>2</v>
-      </c>
-      <c r="C28" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D28" s="45">
-        <v>0</v>
-      </c>
-      <c r="E28" s="11">
-        <f>SUM(D28:D33)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A29" s="6" t="s">
+      <c r="B30" s="17" t="s">
+        <v>2</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D30" s="21">
+        <v>0</v>
+      </c>
+      <c r="E30" s="36">
+        <f>SUM(D30:D35)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A31" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="B29" s="41" t="s">
-        <v>2</v>
-      </c>
-      <c r="C29" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D29" s="45">
-        <v>0</v>
-      </c>
-      <c r="E29" s="11"/>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A30" s="6" t="s">
+      <c r="B31" s="17" t="s">
+        <v>2</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D31" s="21">
+        <v>0</v>
+      </c>
+      <c r="E31" s="36"/>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A32" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="B30" s="41" t="s">
-        <v>2</v>
-      </c>
-      <c r="C30" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D30" s="45">
-        <v>0</v>
-      </c>
-      <c r="E30" s="11"/>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A31" s="6" t="s">
+      <c r="B32" s="17" t="s">
+        <v>2</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D32" s="21">
+        <v>0</v>
+      </c>
+      <c r="E32" s="36"/>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A33" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="B31" s="41" t="s">
-        <v>2</v>
-      </c>
-      <c r="C31" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D31" s="45">
-        <v>0</v>
-      </c>
-      <c r="E31" s="11"/>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A32" s="6" t="s">
+      <c r="B33" s="17" t="s">
+        <v>2</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D33" s="21">
+        <v>0</v>
+      </c>
+      <c r="E33" s="36"/>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A34" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="B32" s="41" t="s">
-        <v>2</v>
-      </c>
-      <c r="C32" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D32" s="45">
-        <v>0</v>
-      </c>
-      <c r="E32" s="11"/>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A33" s="8" t="s">
+      <c r="B34" s="17" t="s">
+        <v>2</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D34" s="21">
+        <v>0</v>
+      </c>
+      <c r="E34" s="36"/>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A35" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="B33" s="42" t="s">
-        <v>2</v>
-      </c>
-      <c r="C33" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="D33" s="46">
-        <v>0</v>
-      </c>
-      <c r="E33" s="11"/>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A34" s="1"/>
-      <c r="B34" s="1"/>
-      <c r="C34" s="1"/>
-      <c r="D34" s="1"/>
-      <c r="E34" s="13"/>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A35" s="21" t="s">
+      <c r="B35" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="C35" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="D35" s="22">
+        <v>0</v>
+      </c>
+      <c r="E35" s="36"/>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A36" s="1"/>
+      <c r="B36" s="1"/>
+      <c r="C36" s="1"/>
+      <c r="D36" s="1"/>
+      <c r="E36" s="11"/>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A37" s="32" t="s">
         <v>13</v>
       </c>
-      <c r="B35" s="22"/>
-      <c r="C35" s="22"/>
-      <c r="D35" s="22"/>
-      <c r="E35" s="22"/>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A36" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="B36" s="39" t="s">
-        <v>2</v>
-      </c>
-      <c r="C36" s="39"/>
-      <c r="D36" s="40"/>
-      <c r="E36" s="20" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A37" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="B37" s="41" t="s">
-        <v>2</v>
-      </c>
-      <c r="C37" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D37" s="45">
-        <v>0</v>
-      </c>
-      <c r="E37" s="11">
-        <f>SUM(D37:D42)</f>
-        <v>0</v>
-      </c>
+      <c r="B37" s="33"/>
+      <c r="C37" s="33"/>
+      <c r="D37" s="33"/>
+      <c r="E37" s="33"/>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A38" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="B38" s="41" t="s">
-        <v>2</v>
-      </c>
-      <c r="C38" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D38" s="45">
-        <v>0</v>
-      </c>
-      <c r="E38" s="11"/>
+        <v>1</v>
+      </c>
+      <c r="B38" s="37" t="s">
+        <v>2</v>
+      </c>
+      <c r="C38" s="37"/>
+      <c r="D38" s="38"/>
+      <c r="E38" s="12" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A39" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="B39" s="41" t="s">
+        <v>3</v>
+      </c>
+      <c r="B39" s="17" t="s">
         <v>2</v>
       </c>
       <c r="C39" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D39" s="45">
-        <v>0</v>
-      </c>
-      <c r="E39" s="11"/>
+      <c r="D39" s="21">
+        <v>0</v>
+      </c>
+      <c r="E39" s="36">
+        <f>SUM(D39:D44)</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A40" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="B40" s="41" t="s">
+        <v>5</v>
+      </c>
+      <c r="B40" s="17" t="s">
         <v>2</v>
       </c>
       <c r="C40" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D40" s="45">
-        <v>0</v>
-      </c>
-      <c r="E40" s="11"/>
+      <c r="D40" s="21">
+        <v>0</v>
+      </c>
+      <c r="E40" s="36"/>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A41" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="B41" s="41" t="s">
+        <v>6</v>
+      </c>
+      <c r="B41" s="17" t="s">
         <v>2</v>
       </c>
       <c r="C41" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D41" s="45">
-        <v>0</v>
-      </c>
-      <c r="E41" s="11"/>
+      <c r="D41" s="21">
+        <v>0</v>
+      </c>
+      <c r="E41" s="36"/>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A42" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="B42" s="41" t="s">
+        <v>7</v>
+      </c>
+      <c r="B42" s="17" t="s">
         <v>2</v>
       </c>
       <c r="C42" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D42" s="45">
-        <v>0</v>
-      </c>
-      <c r="E42" s="11"/>
+      <c r="D42" s="21">
+        <v>0</v>
+      </c>
+      <c r="E42" s="36"/>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A43" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="B43" s="19"/>
-      <c r="C43" s="19"/>
-      <c r="D43" s="19"/>
-      <c r="E43" s="19"/>
+      <c r="A43" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B43" s="17" t="s">
+        <v>2</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D43" s="21">
+        <v>0</v>
+      </c>
+      <c r="E43" s="36"/>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A44" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="B44" s="39" t="s">
-        <v>2</v>
-      </c>
-      <c r="C44" s="39"/>
-      <c r="D44" s="40"/>
-      <c r="E44" s="3" t="s">
-        <v>16</v>
-      </c>
+        <v>9</v>
+      </c>
+      <c r="B44" s="17" t="s">
+        <v>2</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D44" s="21">
+        <v>0</v>
+      </c>
+      <c r="E44" s="36"/>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A45" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="B45" s="41" t="s">
-        <v>2</v>
-      </c>
-      <c r="C45" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D45" s="45">
-        <v>0</v>
-      </c>
-      <c r="E45" s="11">
-        <f>SUM(D45:D50)</f>
-        <v>0</v>
-      </c>
+      <c r="A45" s="30" t="s">
+        <v>14</v>
+      </c>
+      <c r="B45" s="31"/>
+      <c r="C45" s="31"/>
+      <c r="D45" s="31"/>
+      <c r="E45" s="31"/>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A46" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="B46" s="41" t="s">
-        <v>2</v>
-      </c>
-      <c r="C46" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D46" s="45">
-        <v>0</v>
-      </c>
-      <c r="E46" s="11"/>
+        <v>1</v>
+      </c>
+      <c r="B46" s="37" t="s">
+        <v>2</v>
+      </c>
+      <c r="C46" s="37"/>
+      <c r="D46" s="38"/>
+      <c r="E46" s="3" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A47" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="B47" s="41" t="s">
+        <v>3</v>
+      </c>
+      <c r="B47" s="17" t="s">
         <v>2</v>
       </c>
       <c r="C47" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D47" s="45">
-        <v>0</v>
-      </c>
-      <c r="E47" s="11"/>
+      <c r="D47" s="21">
+        <v>0</v>
+      </c>
+      <c r="E47" s="36">
+        <f>SUM(D47:D52)</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A48" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B48" s="17" t="s">
+        <v>2</v>
+      </c>
+      <c r="C48" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D48" s="21">
+        <v>0</v>
+      </c>
+      <c r="E48" s="36"/>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A49" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B49" s="17" t="s">
+        <v>2</v>
+      </c>
+      <c r="C49" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D49" s="21">
+        <v>0</v>
+      </c>
+      <c r="E49" s="36"/>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A50" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="B48" s="41" t="s">
-        <v>2</v>
-      </c>
-      <c r="C48" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D48" s="45">
-        <v>0</v>
-      </c>
-      <c r="E48" s="11"/>
-    </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A49" s="6" t="s">
+      <c r="B50" s="17" t="s">
+        <v>2</v>
+      </c>
+      <c r="C50" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D50" s="21">
+        <v>0</v>
+      </c>
+      <c r="E50" s="36"/>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A51" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="B49" s="41" t="s">
-        <v>2</v>
-      </c>
-      <c r="C49" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D49" s="45">
-        <v>0</v>
-      </c>
-      <c r="E49" s="11"/>
-    </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A50" s="8" t="s">
+      <c r="B51" s="17" t="s">
+        <v>2</v>
+      </c>
+      <c r="C51" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D51" s="21">
+        <v>0</v>
+      </c>
+      <c r="E51" s="36"/>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A52" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="B50" s="42" t="s">
-        <v>2</v>
-      </c>
-      <c r="C50" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="D50" s="46">
-        <v>0</v>
-      </c>
-      <c r="E50" s="11"/>
-    </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A51" s="1"/>
-      <c r="B51" s="1"/>
-      <c r="C51" s="1"/>
-      <c r="D51" s="1"/>
-    </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A52" s="23" t="s">
+      <c r="B52" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="C52" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="D52" s="22">
+        <v>0</v>
+      </c>
+      <c r="E52" s="36"/>
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A53" s="1"/>
+      <c r="B53" s="1"/>
+      <c r="C53" s="1"/>
+      <c r="D53" s="1"/>
+    </row>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A54" s="44" t="s">
         <v>15</v>
       </c>
-      <c r="B52" s="24"/>
-      <c r="C52" s="24"/>
-      <c r="D52" s="24"/>
-      <c r="E52" s="24"/>
-    </row>
-    <row r="53" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="6" t="s">
+      <c r="B54" s="45"/>
+      <c r="C54" s="45"/>
+      <c r="D54" s="45"/>
+      <c r="E54" s="45"/>
+    </row>
+    <row r="55" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A55" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="B53" s="39" t="s">
-        <v>2</v>
-      </c>
-      <c r="C53" s="39"/>
-      <c r="D53" s="40"/>
-      <c r="E53" s="3" t="s">
+      <c r="B55" s="37" t="s">
+        <v>2</v>
+      </c>
+      <c r="C55" s="37"/>
+      <c r="D55" s="38"/>
+      <c r="E55" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="H53" s="31"/>
-    </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A54" s="6" t="s">
+      <c r="H55" s="14"/>
+    </row>
+    <row r="56" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A56" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="B54" s="41" t="s">
-        <v>2</v>
-      </c>
-      <c r="C54" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D54" s="7">
+      <c r="B56" s="17" t="s">
+        <v>2</v>
+      </c>
+      <c r="C56" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D56" s="7">
         <v>15</v>
       </c>
-      <c r="E54" s="29">
-        <f>SUM(D54:D59)</f>
+      <c r="E56" s="43">
+        <f>SUM(D56:D61)</f>
         <v>645</v>
       </c>
-      <c r="H54" s="32" t="s">
+      <c r="H56" s="40" t="s">
         <v>20</v>
       </c>
-      <c r="I54" s="28"/>
-    </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A55" s="6" t="s">
+    </row>
+    <row r="57" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A57" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="B55" s="41" t="s">
-        <v>2</v>
-      </c>
-      <c r="C55" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D55" s="7">
+      <c r="B57" s="17" t="s">
+        <v>2</v>
+      </c>
+      <c r="C57" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D57" s="7">
         <v>30</v>
       </c>
-      <c r="E55" s="29"/>
-      <c r="H55" s="33"/>
-      <c r="I55" s="28"/>
-    </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A56" s="6" t="s">
+      <c r="E57" s="43"/>
+      <c r="H57" s="41"/>
+    </row>
+    <row r="58" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A58" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="B56" s="41" t="s">
-        <v>2</v>
-      </c>
-      <c r="C56" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D56" s="7">
+      <c r="B58" s="17" t="s">
+        <v>2</v>
+      </c>
+      <c r="C58" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D58" s="7">
         <v>60</v>
       </c>
-      <c r="E56" s="29"/>
-      <c r="H56" s="33"/>
-    </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A57" s="6" t="s">
+      <c r="E58" s="43"/>
+      <c r="H58" s="41"/>
+    </row>
+    <row r="59" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A59" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="B57" s="41" t="s">
-        <v>2</v>
-      </c>
-      <c r="C57" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D57" s="7">
+      <c r="B59" s="17" t="s">
+        <v>2</v>
+      </c>
+      <c r="C59" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D59" s="7">
         <v>120</v>
       </c>
-      <c r="E57" s="29"/>
-      <c r="H57" s="33"/>
-    </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A58" s="6" t="s">
+      <c r="E59" s="43"/>
+      <c r="H59" s="41"/>
+    </row>
+    <row r="60" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A60" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="B58" s="41" t="s">
-        <v>2</v>
-      </c>
-      <c r="C58" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D58" s="7">
+      <c r="B60" s="17" t="s">
+        <v>2</v>
+      </c>
+      <c r="C60" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D60" s="7">
         <v>180</v>
       </c>
-      <c r="E58" s="29"/>
-      <c r="H58" s="33"/>
-    </row>
-    <row r="59" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="8" t="s">
+      <c r="E60" s="43"/>
+      <c r="H60" s="41"/>
+    </row>
+    <row r="61" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A61" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="B59" s="42" t="s">
-        <v>2</v>
-      </c>
-      <c r="C59" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="D59" s="10">
+      <c r="B61" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="C61" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="D61" s="10">
         <v>240</v>
       </c>
-      <c r="E59" s="29"/>
-      <c r="H59" s="34"/>
-    </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A60" s="1"/>
-      <c r="B60" s="1"/>
-      <c r="C60" s="1"/>
-      <c r="D60" s="1"/>
-      <c r="H60" s="30"/>
-    </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A61" s="1"/>
-      <c r="B61" s="1"/>
-      <c r="C61" s="1"/>
-      <c r="D61" s="1"/>
-      <c r="H61" s="12"/>
-    </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="E61" s="43"/>
+      <c r="H61" s="42"/>
+    </row>
+    <row r="62" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A62" s="1"/>
       <c r="B62" s="1"/>
       <c r="C62" s="1"/>
       <c r="D62" s="1"/>
-      <c r="H62" s="12"/>
-    </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="H62" s="13"/>
+    </row>
+    <row r="63" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A63" s="1"/>
       <c r="B63" s="1"/>
       <c r="C63" s="1"/>
       <c r="D63" s="1"/>
-      <c r="H63" s="12"/>
-    </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="64" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A64" s="1"/>
       <c r="B64" s="1"/>
       <c r="C64" s="1"/>
@@ -1815,52 +1864,66 @@
       <c r="C67" s="1"/>
       <c r="D67" s="1"/>
     </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A68" s="1"/>
+      <c r="B68" s="1"/>
+      <c r="C68" s="1"/>
+      <c r="D68" s="1"/>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A69" s="1"/>
+      <c r="B69" s="1"/>
+      <c r="C69" s="1"/>
+      <c r="D69" s="1"/>
+    </row>
   </sheetData>
-  <sheetProtection sheet="1" objects="1" scenarios="1"/>
-  <mergeCells count="25">
-    <mergeCell ref="A43:E43"/>
-    <mergeCell ref="H3:H5"/>
-    <mergeCell ref="H6:H8"/>
-    <mergeCell ref="H9:H11"/>
-    <mergeCell ref="H54:H59"/>
-    <mergeCell ref="E37:E42"/>
-    <mergeCell ref="E45:E50"/>
-    <mergeCell ref="E54:E59"/>
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="A9:E9"/>
-    <mergeCell ref="A18:E18"/>
-    <mergeCell ref="A26:E26"/>
-    <mergeCell ref="A35:E35"/>
-    <mergeCell ref="A52:E52"/>
-    <mergeCell ref="B19:D19"/>
-    <mergeCell ref="E3:E8"/>
-    <mergeCell ref="E11:E16"/>
-    <mergeCell ref="E20:E25"/>
-    <mergeCell ref="E28:E33"/>
-    <mergeCell ref="B2:D2"/>
-    <mergeCell ref="B10:D10"/>
-    <mergeCell ref="B53:D53"/>
-    <mergeCell ref="B27:D27"/>
-    <mergeCell ref="B36:D36"/>
-    <mergeCell ref="B44:D44"/>
+  <sheetProtection sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <mergeCells count="27">
+    <mergeCell ref="A45:E45"/>
+    <mergeCell ref="H5:H7"/>
+    <mergeCell ref="H8:H10"/>
+    <mergeCell ref="H11:H13"/>
+    <mergeCell ref="H56:H61"/>
+    <mergeCell ref="E39:E44"/>
+    <mergeCell ref="E47:E52"/>
+    <mergeCell ref="E56:E61"/>
+    <mergeCell ref="A54:E54"/>
+    <mergeCell ref="B55:D55"/>
+    <mergeCell ref="B38:D38"/>
+    <mergeCell ref="B46:D46"/>
+    <mergeCell ref="A28:E28"/>
+    <mergeCell ref="A37:E37"/>
+    <mergeCell ref="B21:D21"/>
+    <mergeCell ref="E5:E10"/>
+    <mergeCell ref="E13:E18"/>
+    <mergeCell ref="E22:E27"/>
+    <mergeCell ref="E30:E35"/>
+    <mergeCell ref="B12:D12"/>
+    <mergeCell ref="B29:D29"/>
+    <mergeCell ref="B1:E1"/>
+    <mergeCell ref="H2:H4"/>
+    <mergeCell ref="A3:E3"/>
+    <mergeCell ref="A11:E11"/>
+    <mergeCell ref="A20:E20"/>
+    <mergeCell ref="B4:D4"/>
   </mergeCells>
-  <conditionalFormatting sqref="E3:E8">
-    <cfRule type="cellIs" dxfId="11" priority="13" operator="equal">
+  <conditionalFormatting sqref="E5:E10">
+    <cfRule type="cellIs" dxfId="11" priority="14" operator="notEqual">
       <formula>100</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="10" priority="14" operator="notEqual">
+    <cfRule type="cellIs" dxfId="10" priority="13" operator="equal">
       <formula>100</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E11:E16">
-    <cfRule type="cellIs" dxfId="9" priority="11" operator="equal">
+  <conditionalFormatting sqref="E13:E18">
+    <cfRule type="cellIs" dxfId="9" priority="12" operator="notEqual">
       <formula>100</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="8" priority="12" operator="notEqual">
+    <cfRule type="cellIs" dxfId="8" priority="11" operator="equal">
       <formula>100</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E20:E25">
+  <conditionalFormatting sqref="E22:E27">
     <cfRule type="cellIs" dxfId="7" priority="9" operator="equal">
       <formula>100</formula>
     </cfRule>
@@ -1868,27 +1931,27 @@
       <formula>100</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E28:E33">
-    <cfRule type="cellIs" dxfId="5" priority="7" operator="equal">
+  <conditionalFormatting sqref="E30:E35">
+    <cfRule type="cellIs" dxfId="5" priority="8" operator="notEqual">
       <formula>100</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="8" operator="notEqual">
+    <cfRule type="cellIs" dxfId="4" priority="7" operator="equal">
       <formula>100</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E37:E42">
-    <cfRule type="cellIs" dxfId="3" priority="5" operator="equal">
+  <conditionalFormatting sqref="E39:E44">
+    <cfRule type="cellIs" dxfId="3" priority="6" operator="notEqual">
       <formula>100</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="6" operator="notEqual">
+    <cfRule type="cellIs" dxfId="2" priority="5" operator="equal">
       <formula>100</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E45:E50">
-    <cfRule type="cellIs" dxfId="1" priority="3" operator="equal">
+  <conditionalFormatting sqref="E47:E52">
+    <cfRule type="cellIs" dxfId="1" priority="4" operator="notEqual">
       <formula>100</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="4" operator="notEqual">
+    <cfRule type="cellIs" dxfId="0" priority="3" operator="equal">
       <formula>100</formula>
     </cfRule>
   </conditionalFormatting>
